--- a/SimsRandomWorksheet.xlsx
+++ b/SimsRandomWorksheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18C8FB9-E017-4313-B271-4B53095C9928}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C48A76-4BC4-44A7-93EC-193A116B35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="630" windowWidth="21720" windowHeight="12915" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21465" windowHeight="12150" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gender Law" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Misc Fun" sheetId="11" r:id="rId13"/>
     <sheet name="Bonus Text" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="266">
   <si>
     <t>Single parent- The main sim must bring up children on her own with no romantic partner in house.</t>
   </si>
@@ -278,9 +278,6 @@
     <t>(Fame) A Video Producer- Use the video station to record, edit, and add effects to your videos, then upload them. You may also stream using the drone.</t>
   </si>
   <si>
-    <t>(IL)- Beach Treasure Finder- Sell Shells and other items found on the beach.</t>
-  </si>
-  <si>
     <t>(IL)- Odd Jobs</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
   </si>
   <si>
     <t>Lifeguard</t>
-  </si>
-  <si>
-    <t>Fisher</t>
   </si>
   <si>
     <t>Diver</t>
@@ -876,6 +870,139 @@
       </rPr>
       <t>This rule may be used if you are displaying your Legacy Challenge in some public way. Either via Let’s Play, Livestream, blog or other format where people can leave comment. The heir is chosen by your viewers/readers from among the pool of eligible heirs.</t>
     </r>
+  </si>
+  <si>
+    <t>(DU)- Bot Crazy- Master the robotics skill, make all bots and a servo and keep in the household for that generation.</t>
+  </si>
+  <si>
+    <t>DU: Bot-Bot Creator: create robot toys and other robotics using the Robotics Machine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL: Farmer: Live off your land, grow and sell crops, cow’s, llama’s, chickens etc. </t>
+  </si>
+  <si>
+    <t>Saving Space [TL]- Family must build and stay in tiny home for entire generation. – Household of max 3 must live in Tier 1. – Household of max 6 must live in Tier 2. – Household of max 8 must live in Tier 3.</t>
+  </si>
+  <si>
+    <t>Furry Friend Fanatic [MFP] – Must have one hamster, one rat, one pygmy hedgehog and one miniature bulbalus. They must be kept in a room (or rooms) dedicated to these little creatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never Knot Knitting [KN] – Create socks, baby clothing or whatever to give to a birthday celebrant, to wear during a holiday and all other special occasions that call for knitting! </t>
+  </si>
+  <si>
+    <t>Fully Furnished Floors – This generation the house must be upgraded until the following requirements are met: At least 3 Bedrooms, a Kitchen, a Dining Room, at least 2 Bathrooms, a Family/Living room, a Study with at least one computer, an outdoor Garden and a Pool.</t>
+  </si>
+  <si>
+    <t>Local Salvadorian [JA] – Must be in a romantic relationship with a Salvadorian, maximize the Salvadorian Culture Skill, teach other household members the traditional dancing and cook frequently the Salvadorian meals.</t>
+  </si>
+  <si>
+    <t>Home Library – Every household member must read at least 10 books and the house must include it’s own private library and own all books from: Childrens, Fantasy, Mystery, Non-fiction, Poetry, Romance, Sci-Fi and Toddler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over-Achiever – Must maximize 7 skills, you may choose which. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Maniac – This generation you can add one more Sim into your household. However, this Sim must be locked up in a hidden prison room on the lot. Your Heir is the only human contact the prisoner can have. The Prisoner is released on it’s birthday (Young Adult &gt; Adult or Adult &gt; Elder). How the prison looks like is all up to you. Just no communication electronics allowed (laptop/computer etc). </t>
+  </si>
+  <si>
+    <t>Paranormal’s President [P]- This generations heir is a paranormal fan. Maximize your Medium Skills, unlock and perform all Seance Table interactions, and the best of all summon Bonehilda! Oh and don’t forget to stay for 7 nights at a Haunted House.</t>
+  </si>
+  <si>
+    <t>Occult Sim – Your Heir has trouble fitting in. This generation the heir is trying to find a fit. Start as a “normal” sim and find your way through all types of occults. You have to stay one type for 7 sim-days. But you can take breaks from being an occult sim. For example: one week a mermaid, next week human again, week after vampire, week after spellcaster, next week human again and after that a werewolf.</t>
+  </si>
+  <si>
+    <t>Livin’ for the Lore – This generations goal is to learn about werewolf, vampire, spellcaster and Salvadorada lore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roommate fun [DU] – have at least 1 roommate in the family household for entire generation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice and Cozy [TL] – All bedrooms must be max 12 tiles. </t>
+  </si>
+  <si>
+    <t>Duel Master [ROM] – Once a week your heir must win a Magic Duel in the Magic Realm.</t>
+  </si>
+  <si>
+    <t>Whims, Whims and Whims – The Heir complete all Whims that pop-up.</t>
+  </si>
+  <si>
+    <t>Beach Lifestyle – This generation the entire household must spend one day per week at the beach. They must engage in beach and ocean activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nasty Neighbor – The Heir must fight at least one of the neighbors every other day.</t>
+  </si>
+  <si>
+    <t>Cowplant Plantation – Must take care of minimal 5 Cow Plants.</t>
+  </si>
+  <si>
+    <t>Ghastly Roommates [P] – Welcome to the Haunted House lot! You must learn how to live with your new roommates, they are here to stay for this generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple living [CL] – Live off your land. All meals must be made from fresh ingredients you have available. You may buy these or grow them yourself. </t>
+  </si>
+  <si>
+    <t>The Collector – Must collect all possible collectible items every day at the spots accessible around your direct neighbourhood.</t>
+  </si>
+  <si>
+    <t>(KN): Plopsy Seller - Sell items you make on plopsy</t>
+  </si>
+  <si>
+    <t>(P) Freelance Paranormal Investigator</t>
+  </si>
+  <si>
+    <t>Video Game Streamer</t>
+  </si>
+  <si>
+    <t>Simfluencer</t>
+  </si>
+  <si>
+    <t>(P)- Freelancer – Paranormal Investigator</t>
+  </si>
+  <si>
+    <t>CL: Festival Fanatic: win and sell prices at festival games, sell free posters etc.</t>
+  </si>
+  <si>
+    <t>C&amp;D: Breeder: breed cats or dogs. But only 2 litters max per female! We don’t want to create the bad type of puppy/kitten mills. You need to befriend your parent animals before breeding.</t>
+  </si>
+  <si>
+    <t>S: Bee Keeper: keep hives and sell their honey with the Burtie’s Bee Box.</t>
+  </si>
+  <si>
+    <t>GF: Influencer: become famous and use the perks based on Corporate Partnership: sell gifts, use Video &amp; Music Stations for fame and money.</t>
+  </si>
+  <si>
+    <t>(IL)- Beachcomber- Sell Shells and other items found on the beach.</t>
+  </si>
+  <si>
+    <t>HY: Fashion Designer: Create Fashion Looks and Sell outfits on Trendi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD: Yoga/Meditation Instructor: Become a Yoga instructor at a spa or invite people over for a private class at home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD: Massage Therapist: Give massages at the spa or create your own little private massage saloon at home. Happy ending? You mean this generation gets a nice ending, right? Right???!!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD: Nail Technician: Get your creativity going as a nail technician at the spa, or invite people over as “customers”. </t>
+  </si>
+  <si>
+    <t>Fisherman</t>
+  </si>
+  <si>
+    <t>Troubled Teens [HSY] – When your children becomes teenagers, the real parenting starts. Roll the dice for 4 types of kids:
+A. Trouble Maker: Class Clown or Your Worst Nightmare? He/She sneaks out to parties, gets into fights, pulls pranks, gets into detention, etc.
+B. Mr/Miss Perfect: “You’re so Perfect!” He/She is on the cheer- or football team. Is a straight A-student, and has at least 3 good friends, a boy- or girlfriend and a part-time job.
+C. Overachiever: The one that knows all answers. He/She is a straight A-student, masters an instrument skill, masters at least 2 other mental skills, joins an after school activity, has no friends.
+D. Mr. Mean/Mean Girl: The one everyone fears, yet wants to be. He/She has one rival and one bestie, is a trendsetter with 10 outfits on Trendi, is dating around and breaking hearts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposites attract [GT]: You can only start relationships (romantically and friendly) with other sims who you are not compatible with. </t>
+  </si>
+  <si>
+    <t>The Teacher [GT]: You must help your child(ren) with everything; learning how to bike, build treehouses, with homework, etc. Toddlers cannot learn via those toddler pads, they must learn with their parent(s) or other caretakers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyle’s best friend! [GT]: Whenever a sim *ahum, Kyle* wants to stay over, you cannot decline! </t>
   </si>
 </sst>
 </file>
@@ -930,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -948,6 +1075,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,17 +1373,17 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,17 +1403,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EEF83B-310B-485A-A0D6-6CD15E8F3905}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>55</v>
@@ -1415,42 +1546,72 @@
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>88</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1463,59 +1624,63 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
@@ -1529,68 +1694,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73633D1-8D30-49AB-8290-0A3C5369F87B}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1598,22 +1763,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1621,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
         <v>98</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>99</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -1644,111 +1809,168 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="L17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
+      <c r="C43" s="8" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
@@ -1763,90 +1985,90 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A55732-2379-44DF-BF7C-B442D90CE013}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,43 +2076,43 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1898,24 +2120,24 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
         <v>137</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -1923,52 +2145,122 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1981,106 +2273,106 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
@@ -2119,7 +2411,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2130,7 +2422,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -2141,7 +2433,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2152,7 +2444,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2163,7 +2455,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2174,7 +2466,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2185,7 +2477,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2196,7 +2488,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2230,17 +2522,17 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2263,17 +2555,17 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC866FD-3C9A-4486-9A8A-DFE5E3962D78}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2406,7 +2698,7 @@
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
@@ -2428,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFBB2E5-5039-4876-9CDF-E5A32248B6A6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,52 +2731,52 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2630,17 +2922,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F16E4C-6BA3-4528-B29B-C0848877EC21}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -2846,6 +3138,41 @@
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
